--- a/產品預設資料.xlsx
+++ b/產品預設資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaAdv\Workspace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0653F69D-5582-4A79-A4D0-622425360252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE80C8-EEE6-4579-A773-66526E6104E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{DD36FEB2-4C62-4C94-8AE6-5E699EF79582}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="2" xr2:uid="{DD36FEB2-4C62-4C94-8AE6-5E699EF79582}"/>
   </bookViews>
   <sheets>
     <sheet name="產品規劃" sheetId="2" r:id="rId1"/>
@@ -26,27 +26,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">product!$A$1:$K$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">salesData!$A$1:$K$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">stock!$A$1:$K$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">目前資料庫銷售資料!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="488">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1529,6 +1521,69 @@
   </si>
   <si>
     <t>U5ARM</t>
+  </si>
+  <si>
+    <t>'C309'</t>
+  </si>
+  <si>
+    <t>'MO-20231215-01'</t>
+  </si>
+  <si>
+    <t>'MO-20231208-01'</t>
+  </si>
+  <si>
+    <t>'PC-20231218-01'</t>
+  </si>
+  <si>
+    <t>'PC-20231225-01'</t>
+  </si>
+  <si>
+    <t>'SP-20231209-01'</t>
+  </si>
+  <si>
+    <t>'SP-20231223-01'</t>
+  </si>
+  <si>
+    <t>'Z3ND4'</t>
+  </si>
+  <si>
+    <t>'9RXJ1'</t>
+  </si>
+  <si>
+    <t>'A5JO2'</t>
+  </si>
+  <si>
+    <t>'2TQ5A'</t>
+  </si>
+  <si>
+    <t>'C26ZT'</t>
+  </si>
+  <si>
+    <t>'3L3US'</t>
+  </si>
+  <si>
+    <t>'旅遊'</t>
+  </si>
+  <si>
+    <t>'烘焙'</t>
+  </si>
+  <si>
+    <t>'餐廚'</t>
+  </si>
+  <si>
+    <t>'寄倉'</t>
+  </si>
+  <si>
+    <t>'銷售'</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>)</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,11 +1673,50 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1979,13 +2073,13 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2052,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2087,7 +2181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2122,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2148,7 +2242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2174,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>6</v>
       </c>
@@ -2194,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>7</v>
       </c>
@@ -2214,7 +2308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>8</v>
       </c>
@@ -2234,7 +2328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>9</v>
       </c>
@@ -2254,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
         <v>41</v>
       </c>
@@ -2268,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
         <v>43</v>
       </c>
@@ -2282,7 +2376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
         <v>45</v>
       </c>
@@ -2296,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
         <v>47</v>
       </c>
@@ -2310,7 +2404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
         <v>49</v>
       </c>
@@ -2324,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
         <v>51</v>
       </c>
@@ -2338,7 +2432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
         <v>53</v>
       </c>
@@ -2352,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>55</v>
       </c>
@@ -2366,7 +2460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J19" t="s">
         <v>57</v>
       </c>
@@ -2380,7 +2474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
         <v>59</v>
       </c>
@@ -2394,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="10:14" x14ac:dyDescent="0.3">
       <c r="J21" t="s">
         <v>61</v>
       </c>
@@ -2408,53 +2502,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="10:14" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="10:14" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N23">
         <v>67011088</v>
       </c>
     </row>
-    <row r="24" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N24">
         <v>70837643</v>
       </c>
     </row>
-    <row r="25" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N25">
         <v>73392000</v>
       </c>
     </row>
-    <row r="26" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N26">
         <v>77157744</v>
       </c>
     </row>
-    <row r="27" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N27">
         <v>80301999</v>
       </c>
     </row>
-    <row r="28" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N28">
         <v>83215236</v>
       </c>
     </row>
-    <row r="29" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N29">
         <v>87286191</v>
       </c>
     </row>
-    <row r="30" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N30">
         <v>92890044</v>
       </c>
     </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N31">
         <v>94192593</v>
       </c>
     </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="10:14" x14ac:dyDescent="0.3">
       <c r="N32">
         <v>97629321</v>
       </c>
@@ -2471,20 +2565,20 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K14"/>
+      <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
@@ -2528,7 +2622,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>359</v>
       </c>
@@ -2563,7 +2657,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>361</v>
       </c>
@@ -2598,7 +2692,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>362</v>
       </c>
@@ -2633,7 +2727,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>363</v>
       </c>
@@ -2668,7 +2762,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>364</v>
       </c>
@@ -2703,7 +2797,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>365</v>
       </c>
@@ -2738,7 +2832,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>366</v>
       </c>
@@ -2773,7 +2867,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>367</v>
       </c>
@@ -2808,7 +2902,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>368</v>
       </c>
@@ -2843,7 +2937,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>370</v>
       </c>
@@ -2878,7 +2972,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>372</v>
       </c>
@@ -2913,7 +3007,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>374</v>
       </c>
@@ -2948,7 +3042,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>376</v>
       </c>
@@ -2991,28 +3085,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD16F90-0BA4-4D2A-8761-C4678C36BD7D}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>344</v>
       </c>
@@ -3047,7 +3141,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3082,7 +3176,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3117,7 +3211,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3152,7 +3246,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3187,7 +3281,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3222,7 +3316,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3257,7 +3351,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3292,7 +3386,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3327,7 +3421,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3362,7 +3456,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3397,7 +3491,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3432,7 +3526,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3467,7 +3561,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3502,7 +3596,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3537,7 +3631,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3572,7 +3666,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3607,7 +3701,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3642,7 +3736,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3677,7 +3771,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3712,220 +3806,518 @@
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9990</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20231215</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f>L21&amp;A21&amp;M21&amp;B21&amp;M21&amp;C21&amp;M21&amp;D21&amp;M21&amp;E21&amp;M21&amp;F21&amp;M21&amp;G21&amp;M21&amp;H21&amp;M21&amp;I21&amp;M21&amp;J21&amp;M21&amp;K21&amp;N21&amp;M21</f>
+        <v>(1,'C309','MO-20231215-01','Z3ND4','旅遊','背包','寄倉',10,9990,20231215,'銷售'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H22" s="2">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2990</v>
+      </c>
+      <c r="J22" s="2">
+        <v>20231208</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" ref="O22:O26" si="0">L22&amp;A22&amp;M22&amp;B22&amp;M22&amp;C22&amp;M22&amp;D22&amp;M22&amp;E22&amp;M22&amp;F22&amp;M22&amp;G22&amp;M22&amp;H22&amp;M22&amp;I22&amp;M22&amp;J22&amp;M22&amp;K22&amp;N22&amp;M22</f>
+        <v>(1,'B204','MO-20231208-01','9RXJ1','烘焙','餅乾模','寄倉',10,2990,20231208,'銷售'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H23" s="2">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2235</v>
+      </c>
+      <c r="J23" s="2">
+        <v>20231218</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'B102','PC-20231218-01','A5JO2','餐廚','鍋鏟','寄倉',15,2235,20231218,'銷售'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1490</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20231225</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'A102','PC-20231225-01','2TQ5A','餐廚','鍋鏟','寄倉',10,1490,20231225,'銷售'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2990</v>
+      </c>
+      <c r="J25" s="2">
+        <v>20231209</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'B204','SP-20231209-01','C26ZT','烘焙','餅乾模','寄倉',10,2990,20231209,'銷售'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1192</v>
+      </c>
+      <c r="J26" s="2">
+        <v>20231223</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'A102','SP-20231223-01','3L3US','餐廚','鍋鏟','寄倉',8,1192,20231223,'銷售'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C27" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D27" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E27" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F27" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G27" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
         <v>149</v>
       </c>
-      <c r="J21">
+      <c r="J27" s="7">
         <v>20230810</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K27" s="8" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>401</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C28" t="s">
         <v>446</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D28" t="s">
         <v>274</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E28" t="s">
         <v>328</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F28" t="s">
         <v>332</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G28" t="s">
         <v>429</v>
       </c>
-      <c r="H22">
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="I28">
         <v>1495</v>
       </c>
-      <c r="J22">
+      <c r="J28">
         <v>20231005</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B29" t="s">
         <v>404</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C29" t="s">
         <v>447</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D29" t="s">
         <v>268</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E29" t="s">
         <v>328</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F29" t="s">
         <v>327</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G29" t="s">
         <v>429</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>199</v>
       </c>
-      <c r="J23">
+      <c r="J29">
         <v>20230915</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>410</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C30" t="s">
         <v>448</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D30" t="s">
         <v>214</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E30" t="s">
         <v>330</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F30" t="s">
         <v>333</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G30" t="s">
         <v>429</v>
       </c>
-      <c r="H24">
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="I30">
         <v>745</v>
       </c>
-      <c r="J24">
+      <c r="J30">
         <v>20230520</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>413</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C31" t="s">
         <v>449</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D31" t="s">
         <v>208</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E31" t="s">
         <v>326</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F31" t="s">
         <v>424</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G31" t="s">
         <v>429</v>
       </c>
-      <c r="H25">
+      <c r="H31">
         <v>8</v>
       </c>
-      <c r="I25">
+      <c r="I31">
         <v>5592</v>
       </c>
-      <c r="J25">
+      <c r="J31">
         <v>20230415</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>416</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C32" t="s">
         <v>450</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D32" t="s">
         <v>202</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E32" t="s">
         <v>326</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F32" t="s">
         <v>325</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G32" t="s">
         <v>429</v>
       </c>
-      <c r="H26">
+      <c r="H32">
         <v>3</v>
       </c>
-      <c r="I26">
+      <c r="I32">
         <v>750</v>
       </c>
-      <c r="J26">
+      <c r="J32">
         <v>20230610</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>323</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K32" xr:uid="{8F24E344-8660-488A-8B3E-1CBD94B04E86}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3935,13 +4327,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3B61B-3C6E-4872-A3A4-2571387D950B}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
@@ -3991,7 +4386,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>382</v>
       </c>
@@ -4041,7 +4436,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>386</v>
       </c>
@@ -4091,7 +4486,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>389</v>
       </c>
@@ -4141,7 +4536,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>392</v>
       </c>
@@ -4191,7 +4586,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>395</v>
       </c>
@@ -4241,7 +4636,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>398</v>
       </c>
@@ -4291,7 +4686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>401</v>
       </c>
@@ -4341,7 +4736,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>404</v>
       </c>
@@ -4391,7 +4786,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>407</v>
       </c>
@@ -4441,7 +4836,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>410</v>
       </c>
@@ -4491,7 +4886,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>413</v>
       </c>
@@ -4541,7 +4936,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>416</v>
       </c>
@@ -4591,7 +4986,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>419</v>
       </c>
@@ -4644,10 +5039,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:O3 N14 N11:O11 O4:O5 O7:O9 O12:O13">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4661,23 +5056,23 @@
       <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
@@ -4721,7 +5116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4768,7 +5163,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -4815,7 +5210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -4862,7 +5257,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4909,7 +5304,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -4956,7 +5351,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -5003,7 +5398,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -5050,7 +5445,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -5097,7 +5492,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>126</v>
       </c>
@@ -5144,7 +5539,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -5191,7 +5586,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -5238,7 +5633,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -5285,7 +5680,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -5332,7 +5727,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5379,7 +5774,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -5426,7 +5821,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5473,7 +5868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -5520,7 +5915,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -5567,7 +5962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -5614,7 +6009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -5676,12 +6071,12 @@
       <selection activeCell="C1" sqref="C1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5698,7 +6093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -5718,7 +6113,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -5738,7 +6133,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -5758,7 +6153,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -5778,7 +6173,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -5798,7 +6193,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -5818,7 +6213,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -5838,7 +6233,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -5858,7 +6253,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -5892,16 +6287,16 @@
       <selection sqref="A1:K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>322</v>
       </c>
@@ -5933,7 +6328,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -5970,7 +6365,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -5999,7 +6394,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -6028,7 +6423,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -6065,7 +6460,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -6094,7 +6489,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -6123,7 +6518,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -6160,7 +6555,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -6189,7 +6584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -6218,7 +6613,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -6255,7 +6650,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -6284,7 +6679,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -6313,7 +6708,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -6350,7 +6745,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -6379,7 +6774,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -6408,7 +6803,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -6445,7 +6840,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -6474,7 +6869,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -6503,7 +6898,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -6540,7 +6935,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -6569,7 +6964,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -6598,7 +6993,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -6635,7 +7030,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -6664,7 +7059,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -6693,7 +7088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -6730,7 +7125,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -6759,7 +7154,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -6788,7 +7183,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -6825,7 +7220,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -6854,7 +7249,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -6883,7 +7278,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -6920,7 +7315,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -6949,7 +7344,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -6978,7 +7373,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -7015,7 +7410,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -7044,7 +7439,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -7073,7 +7468,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -7110,7 +7505,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -7139,7 +7534,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -7168,7 +7563,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -7205,7 +7600,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -7234,7 +7629,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -7263,7 +7658,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -7300,7 +7695,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -7329,7 +7724,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -7358,7 +7753,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -7395,7 +7790,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -7424,7 +7819,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -7453,7 +7848,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -7490,7 +7885,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -7519,7 +7914,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -7548,7 +7943,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -7585,7 +7980,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -7614,7 +8009,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -7643,7 +8038,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -7680,7 +8075,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -7709,7 +8104,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -7738,7 +8133,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -7775,7 +8170,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7804,7 +8199,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -7845,25 +8240,25 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>344</v>
       </c>
@@ -7898,7 +8293,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7933,7 +8328,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7968,7 +8363,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8003,7 +8398,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8038,7 +8433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8073,7 +8468,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8108,7 +8503,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8143,7 +8538,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8178,7 +8573,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -8213,7 +8608,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -8248,7 +8643,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -8283,7 +8678,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -8318,7 +8713,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -8353,7 +8748,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8388,7 +8783,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -8402,7 +8797,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8416,7 +8811,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8430,7 +8825,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8444,7 +8839,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8458,7 +8853,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8472,7 +8867,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8486,7 +8881,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8500,7 +8895,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8514,7 +8909,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8528,7 +8923,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8542,7 +8937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8556,7 +8951,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -8570,7 +8965,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8588,7 +8983,7 @@
   <autoFilter ref="A1:K15" xr:uid="{5157F28A-CFB0-4B53-AE25-A417CD716935}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
